--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3187104.587811455</v>
+        <v>3184769.476609474</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>72.94942429078246</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>298.7704665567506</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,16 +823,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>77.27614072340589</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>8.310224979177217</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>82.78267808229599</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>28.69065793110214</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,19 +1054,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>14.29880131109846</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>196.4017961483599</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>68.11015198958259</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>14.42881909501659</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>71.6703719699171</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>12.61028049873698</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>83.06560892428257</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>14.92158678358435</v>
       </c>
       <c r="G16" t="n">
-        <v>99.97427419833816</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187852</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,10 +2005,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>170.9457618790573</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>40.53421095547012</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>116.4636264596512</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S25" t="n">
-        <v>35.41770597126702</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972916</v>
       </c>
       <c r="X28" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2950,13 +2950,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>92.58181139165723</v>
       </c>
     </row>
     <row r="32">
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>48.85497112745768</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,16 +3196,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>94.05355358057933</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>141.4513012076585</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>93.4044447618827</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1878.507785786471</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>1878.507785786471</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>1520.24208717972</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>1134.453834581476</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>723.4679297918683</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056585</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1878.507785786471</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1878.507785786471</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.507785786471</v>
+        <v>918.0161179218655</v>
       </c>
     </row>
     <row r="3">
@@ -4401,7 +4401,7 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4410,25 +4410,25 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>299.2648838844854</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100998</v>
+        <v>593.9684409159571</v>
       </c>
       <c r="M3" t="n">
-        <v>1456.147065963532</v>
+        <v>957.2304598751772</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560478</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>354.4439942939401</v>
+        <v>297.2899590611446</v>
       </c>
       <c r="C4" t="n">
-        <v>354.4439942939401</v>
+        <v>297.2899590611446</v>
       </c>
       <c r="D4" t="n">
-        <v>354.4439942939401</v>
+        <v>297.2899590611446</v>
       </c>
       <c r="E4" t="n">
-        <v>206.530900711547</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F4" t="n">
-        <v>59.64095321363666</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>59.64095321363666</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
         <v>51.24678656800311</v>
@@ -4513,25 +4513,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1347.327782578335</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>1092.643294372448</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="W4" t="n">
-        <v>803.2261243354876</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="X4" t="n">
-        <v>575.2365734374703</v>
+        <v>699.7310030349145</v>
       </c>
       <c r="Y4" t="n">
-        <v>354.4439942939401</v>
+        <v>478.9384238913843</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1604.229622059686</v>
+        <v>909.6965460670931</v>
       </c>
       <c r="C5" t="n">
-        <v>1235.267105119274</v>
+        <v>826.0776793172992</v>
       </c>
       <c r="D5" t="n">
-        <v>877.0014065125238</v>
+        <v>826.0776793172992</v>
       </c>
       <c r="E5" t="n">
-        <v>491.2131539142795</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F5" t="n">
-        <v>80.22724912467197</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800314</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800314</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800314</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764999</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723852</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400157</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664336</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V5" t="n">
-        <v>1977.695380320766</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="W5" t="n">
-        <v>1977.695380320766</v>
+        <v>1669.762144392295</v>
       </c>
       <c r="X5" t="n">
-        <v>1604.229622059686</v>
+        <v>1296.296386131215</v>
       </c>
       <c r="Y5" t="n">
-        <v>1604.229622059686</v>
+        <v>1296.296386131215</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800314</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370162</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380219</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694938</v>
+        <v>932.4978103100997</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>518.2127024906389</v>
+        <v>383.7931243196344</v>
       </c>
       <c r="C7" t="n">
-        <v>349.276519562732</v>
+        <v>383.7931243196344</v>
       </c>
       <c r="D7" t="n">
-        <v>199.1598801503962</v>
+        <v>233.6764849072987</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800314</v>
+        <v>233.6764849072987</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800314</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800314</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800314</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800314</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312205</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4744,31 +4744,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074498</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074498</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U7" t="n">
-        <v>1438.060467399387</v>
+        <v>1048.115628253778</v>
       </c>
       <c r="V7" t="n">
-        <v>1438.060467399387</v>
+        <v>793.4311400478915</v>
       </c>
       <c r="W7" t="n">
-        <v>1148.643297362426</v>
+        <v>793.4311400478915</v>
       </c>
       <c r="X7" t="n">
-        <v>920.6537464644088</v>
+        <v>565.4415891498742</v>
       </c>
       <c r="Y7" t="n">
-        <v>699.8611673208786</v>
+        <v>565.4415891498742</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1712.341567565139</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1343.379050624727</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>985.1133520179767</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>599.3250994197324</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>188.3391946301248</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>177.3071485155254</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3311.03125686673</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3057.500780140566</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>3057.500780140566</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.546497866152</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="X8" t="n">
-        <v>2489.080739605072</v>
+        <v>2331.266366609372</v>
       </c>
       <c r="Y8" t="n">
-        <v>2098.941407629261</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
         <v>1212.42807043813</v>
@@ -4905,16 +4905,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199866</v>
@@ -4926,7 +4926,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>646.6939999491682</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512222</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533118</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>867.4865790926983</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>646.6939999491682</v>
       </c>
     </row>
     <row r="11">
@@ -5018,31 +5018,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,37 +5051,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913855</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.167399417938</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1336.167399417938</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,64 +5264,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961527</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622705</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>1965.532750177312</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2517.442480416599</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.442480416599</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.442480416599</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836023</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556954</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998286</v>
+        <v>565.7099969556954</v>
       </c>
       <c r="E16" t="n">
-        <v>194.8007783998286</v>
+        <v>417.7969033733023</v>
       </c>
       <c r="F16" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>916.294644713842</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,10 +5586,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5607,10 +5607,10 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,40 +5762,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797186</v>
+        <v>542.9134462654462</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1140.291933891998</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446605</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819251</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637309</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438164</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998423</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>727.9786782557277</v>
+        <v>695.5020655703123</v>
       </c>
       <c r="C25" t="n">
-        <v>559.0424953278208</v>
+        <v>526.5658826424054</v>
       </c>
       <c r="D25" t="n">
         <v>408.925855915485</v>
@@ -6136,61 +6136,61 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
-        <v>2411.187623003223</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T25" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U25" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X25" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y25" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6206,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,7 +6236,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6303,13 +6303,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M27" t="n">
         <v>680.0291294438176</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,31 +6458,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6552,16 +6552,16 @@
         <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
     <row r="32">
@@ -6686,16 +6686,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6707,13 +6707,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6898,10 +6898,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6926,19 +6926,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7138,7 +7138,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>821.2910552385084</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7154,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1184.258927726996</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>963.4663485834661</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
@@ -7397,31 +7397,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7546,19 +7546,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,19 +7722,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597619</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F46" t="n">
-        <v>411.9631215597619</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8058,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.955613488307165</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>162.0073097921339</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878341</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,16 +8307,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>186.5911984019046</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154985</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>63.3683537222866</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>130.4994612393469</v>
       </c>
       <c r="G16" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>38.13892827624207</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,10 +23905,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>46.45968844823099</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>105.8997516910991</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>32.15184655856119</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>145.6085800303776</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="X28" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>126.0028419604376</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>118.3918499711702</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25084,16 +25084,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>84.25835418137865</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>16.31315520054598</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,13 +26035,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>72.11969353038614</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>714792.4902389279</v>
+        <v>714792.490238928</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="C2" t="n">
+        <v>718411.5486312478</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312477</v>
       </c>
-      <c r="D2" t="n">
-        <v>718411.5486312481</v>
-      </c>
       <c r="E2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="F2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="F2" t="n">
-        <v>706253.2747287552</v>
-      </c>
       <c r="G2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="H2" t="n">
         <v>706253.2747287554</v>
       </c>
       <c r="I2" t="n">
-        <v>706253.2747287551</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="J2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="K2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="L2" t="n">
+        <v>706253.274728755</v>
+      </c>
+      <c r="M2" t="n">
         <v>706253.2747287554</v>
       </c>
-      <c r="L2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287555</v>
-      </c>
       <c r="N2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="O2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403376</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.177809982</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819068</v>
+        <v>48293.97000819077</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>136726.2736921024</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810784</v>
+        <v>88524.23512810783</v>
       </c>
       <c r="E4" t="n">
+        <v>9337.200356756541</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9337.200356756573</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9337.200356756573</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9337.200356756573</v>
+      </c>
+      <c r="I4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="F4" t="n">
-        <v>9337.200356756577</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9337.200356756653</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9337.200356756653</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9337.200356756603</v>
-      </c>
       <c r="J4" t="n">
-        <v>9337.200356756613</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="K4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756603</v>
       </c>
       <c r="M4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.20035675661</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756613</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984475</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-626004.2810766189</v>
+        <v>-626004.2810766191</v>
       </c>
       <c r="C6" t="n">
-        <v>488747.5024993003</v>
+        <v>488747.5024993006</v>
       </c>
       <c r="D6" t="n">
-        <v>329326.2325014094</v>
+        <v>329326.2325014087</v>
       </c>
       <c r="E6" t="n">
-        <v>270381.0827407368</v>
+        <v>270346.3448153004</v>
       </c>
       <c r="F6" t="n">
-        <v>595793.5445480916</v>
+        <v>595758.8066226562</v>
       </c>
       <c r="G6" t="n">
-        <v>595793.5445480916</v>
+        <v>595758.8066226565</v>
       </c>
       <c r="H6" t="n">
-        <v>595793.5445480916</v>
+        <v>595758.8066226558</v>
       </c>
       <c r="I6" t="n">
-        <v>595793.5445480915</v>
+        <v>595758.8066226558</v>
       </c>
       <c r="J6" t="n">
-        <v>428188.366738109</v>
+        <v>428153.6288126741</v>
       </c>
       <c r="K6" t="n">
-        <v>595793.5445480917</v>
+        <v>595758.8066226563</v>
       </c>
       <c r="L6" t="n">
-        <v>547499.5745399011</v>
+        <v>547464.836614465</v>
       </c>
       <c r="M6" t="n">
-        <v>510738.51661258</v>
+        <v>510703.778687144</v>
       </c>
       <c r="N6" t="n">
-        <v>595793.5445480917</v>
+        <v>595758.8066226563</v>
       </c>
       <c r="O6" t="n">
-        <v>595793.5445480918</v>
+        <v>595758.8066226562</v>
       </c>
       <c r="P6" t="n">
-        <v>595793.5445480918</v>
+        <v>595758.8066226563</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26790,25 +26790,25 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26960,22 +26960,22 @@
         <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>155.7118084757591</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483759</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>155.7118084757589</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.1987997483754</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>309.7844173726981</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>112.7772362162033</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,16 +27543,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>69.15782192316328</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.9412841759516</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27585,19 +27585,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>282.4902136887115</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>382.8570448418519</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,19 +27774,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>131.1222467118328</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>89.82535797284069</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>226.4976123977379</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>189.4891510446035</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>94.35543628911113</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>213.0993748903002</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-7.484429307644118e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31276,34 +31276,34 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
         <v>405.5015080147052</v>
@@ -31312,13 +31312,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,34 +31355,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31391,10 +31391,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31440,19 +31440,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067959</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>671.2522281007809</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>593.5422977113961</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.6580975439395</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.586862646002</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>441.0292693655505</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948319</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,16 +33023,16 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>242.2322097768141</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33205,7 +33205,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,19 +33494,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33734,16 +33734,16 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>218.6425359394819</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,19 +33968,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>167.4835451665588</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33992,10 +33992,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,19 +34205,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>287.9685048518523</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34226,10 +34226,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34363,10 +34363,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34442,22 +34442,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34778,13 +34778,13 @@
         <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>187.543109731792</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>528.9386420741744</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34793,13 +34793,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34936,28 +34936,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
-        <v>379.914843031319</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378503</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>522.0158803980277</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>528.6559836563365</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>462.2005856280628</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.97859357997559</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243153</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>302.4748895856763</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402482</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281362</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37084,7 +37084,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37142,19 +37142,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,19 +37616,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>25.34951124454049</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37640,10 +37640,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,19 +37853,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37874,10 +37874,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38011,10 +38011,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38090,22 +38090,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
